--- a/inst/models/checkimab_large/model.xlsx
+++ b/inst/models/checkimab_large/model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamdahl/Documents/Code/heRomod2/inst/models/checkimab_large/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F153EADC-C035-1745-B8FF-4D1E2F27BFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE9EA57-715A-564B-9F77-337F42A30EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{F2154858-BAC7-AB46-9308-23215F5D2873}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{F2154858-BAC7-AB46-9308-23215F5D2873}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="262">
   <si>
     <t>timeframe</t>
   </si>
@@ -823,6 +823,12 @@
   </si>
   <si>
     <t>lys105</t>
+  </si>
+  <si>
+    <t>sin(state_cycle)</t>
+  </si>
+  <si>
+    <t>cos(cycle)</t>
   </si>
 </sst>
 </file>
@@ -9801,7 +9807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C4CBAC-B29D-6645-89C8-9E5B5D8E4D46}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
@@ -10260,8 +10266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0D78FB-8401-9E4C-9EB5-A7C336F3C948}">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10658,10 +10664,10 @@
         <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>133</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -10675,10 +10681,10 @@
         <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>133</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -10695,7 +10701,7 @@
         <v>32</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>133</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -10709,10 +10715,10 @@
         <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>133</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -10726,10 +10732,10 @@
         <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>133</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -10746,7 +10752,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>133</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">

--- a/inst/models/checkimab_large/model.xlsx
+++ b/inst/models/checkimab_large/model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamdahl/Documents/Code/heRomod2/inst/models/checkimab_large/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE9EA57-715A-564B-9F77-337F42A30EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B6BB09-7148-A347-8E02-1204278B0489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{F2154858-BAC7-AB46-9308-23215F5D2873}"/>
   </bookViews>
@@ -19,11 +19,8 @@
     <sheet name="strategies" sheetId="14" r:id="rId4"/>
     <sheet name="states" sheetId="15" r:id="rId5"/>
     <sheet name="transitions" sheetId="17" r:id="rId6"/>
-    <sheet name="health_values" sheetId="19" r:id="rId7"/>
-    <sheet name="economic_values" sheetId="20" r:id="rId8"/>
-    <sheet name="health_summaries" sheetId="23" r:id="rId9"/>
-    <sheet name="economic_summaries" sheetId="24" r:id="rId10"/>
-    <sheet name="trees" sheetId="25" r:id="rId11"/>
+    <sheet name="values" sheetId="19" r:id="rId7"/>
+    <sheet name="trees" sheetId="25" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="262">
   <si>
     <t>timeframe</t>
   </si>
@@ -87,9 +84,6 @@
     <t>enabled</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>half_cycle_method</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>initial_probability</t>
   </si>
   <si>
-    <t>wtp</t>
-  </si>
-  <si>
     <t>setting</t>
   </si>
   <si>
@@ -829,6 +820,12 @@
   </si>
   <si>
     <t>cos(cycle)</t>
+  </si>
+  <si>
+    <t>days_per_year</t>
+  </si>
+  <si>
+    <t>destination</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1058,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="59">
     <dxf>
       <font>
         <b val="0"/>
@@ -1247,463 +1244,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2715,31 +2255,105 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3FB90E4A-B701-9349-A2FF-9FA1A4AA80AF}" name="Table3" displayName="Table3" ref="A1:B10" totalsRowShown="0" headerRowDxfId="80" dataDxfId="78" headerRowBorderDxfId="79" tableBorderDxfId="77" totalsRowBorderDxfId="76">
-  <autoFilter ref="A1:B10" xr:uid="{E95DCB53-1EAD-4C42-A79B-94CAA67662E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3FB90E4A-B701-9349-A2FF-9FA1A4AA80AF}" name="Table3" displayName="Table3" ref="A1:B11" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
+  <autoFilter ref="A1:B11" xr:uid="{E95DCB53-1EAD-4C42-A79B-94CAA67662E9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{047CA166-C426-8945-9CE9-15BAE71AF547}" name="setting" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{3EC8FA45-F60E-DB40-98AB-411C79177ED2}" name="value" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{047CA166-C426-8945-9CE9-15BAE71AF547}" name="setting" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{3EC8FA45-F60E-DB40-98AB-411C79177ED2}" name="value" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A41B7CCC-2CF7-9849-B002-63F91601793B}" name="Table171011" displayName="Table171011" ref="A1:E297" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="A1:E297" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9216D3E3-B6D9-1B4E-A2C3-03BFE9698A54}" name="name" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{EFF907A6-176D-774E-AF16-6DC3ACC3F5E4}" name="display_name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{D71BA46F-B98A-7545-BE51-72A619B26485}" name="description" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{6454043D-F5C4-A245-B814-29B707C926A1}" name="type"/>
-    <tableColumn id="4" xr3:uid="{4FC4A237-194C-194E-BBCB-0F950EF0C84A}" name="formula" dataDxfId="10"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A864B13E-9722-6C40-BC17-06B0EC44FC76}" name="Table1" displayName="Table1" ref="A1:H570" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" tableBorderDxfId="49">
+  <autoFilter ref="A1:H570" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C5331D5E-A656-7D47-8018-7642F10E6CA8}" name="name" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{FEA74BC7-2D0A-FF42-8C35-D063305661C6}" name="display_name" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{63526D68-1716-6448-B99B-CEBB86C8242D}" name="description" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{AAB4E451-EEBB-A044-8AD0-9290DF1E2375}" name="strategy" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{3D31035A-B4B1-B64A-87FB-CCC8C775DF25}" name="group" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{427DFF91-8F93-0145-9131-C95DC4252B95}" name="formula" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{10971855-F585-B248-B675-EED7430FEFA2}" name="sampling" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{BFC96336-E3CF-2440-BE04-07C88F5381BB}" name="source" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{848A7D5C-EB27-7A4F-89E3-BE69E0713E83}" name="Table4" displayName="Table4" ref="A1:E5" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:E5" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D45418EA-2F30-AD4B-9A80-81EA7CFFD3A6}" name="name" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{F15BE751-2E1F-6D45-B6CA-4B36A3DBAF1F}" name="display_name" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{2DE37434-05F3-2C49-8B39-6141D82E12D4}" name="description" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{921E3B01-3DE0-B949-9ECA-84145DD4961B}" name="weight" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{2C5B087B-AA5D-8044-9269-45693F645B8A}" name="enabled" dataDxfId="34"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A3735BD8-BE90-F145-B9D1-6F21AD4EC4DD}" name="Table48" displayName="Table48" ref="A1:D16" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:D16" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D2109DA5-F8C7-1B48-8FA8-9CE2A6E54806}" name="name" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{78BE1725-4B12-FA40-9F4C-A8B91618D230}" name="display_name" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{EB0ED736-D7D3-6D4A-80D8-FFDFD7676DEB}" name="description" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{CE38F532-648B-8E47-9229-7AE2F2A5A3BF}" name="enabled" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A04C3E6A-433E-0545-80A3-CBB5A6412F2F}" name="Table483" displayName="Table483" ref="A1:H59" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:H59" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{11FBCC06-DBFA-A941-9390-FDA6DFC2DF08}" name="name" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{F1165C82-7EB6-3C4E-A6D0-9C7580824800}" name="display_name" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{921BCE85-2052-2041-AA5B-3EF268AF0D24}" name="description" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{C80C7590-8767-2844-BE04-8DED1FE1D657}" name="initial_probability"/>
+    <tableColumn id="7" xr3:uid="{B9A684F9-BC62-284E-89EE-1142A552E18D}" name="state_group"/>
+    <tableColumn id="8" xr3:uid="{88DA97B5-C90D-B744-B0A5-283879E36586}" name="share_state_time"/>
+    <tableColumn id="6" xr3:uid="{A2855E5E-974C-BC49-8A0D-412678CF7025}" name="state_cycle_limit"/>
+    <tableColumn id="3" xr3:uid="{F3470966-7A21-5646-A493-EB3471A72394}" name="state_cycle_limit_unit" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B6E7DE9-CD7F-6E42-B919-E2DF8C38677A}" name="Table46" displayName="Table46" ref="A1:C834" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:C834" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
+  <tableColumns count="3">
+    <tableColumn id="4" xr3:uid="{3643A0C0-1026-FE40-928C-1466B6129A34}" name="from" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{FCBCD6F9-C7A9-0541-A8CE-8C5A36C85513}" name="to" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{1DD2E99C-F1FD-2A44-BC9A-ED02B82B9DBB}" name="formula" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECAEE805-6565-A54F-9DEE-3F776EC12FFC}" name="Table17" displayName="Table17" ref="A1:F305" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="A1:F305" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B672616B-5AD7-C04F-85D1-A80CD6C05684}" name="name" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{9359D359-E665-004E-AFAA-ED095E5901BE}" name="display_name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{81785362-73A1-9448-94BF-3672160AD33A}" name="description" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{C60112EB-A39D-9044-AA87-C45800C17C3E}" name="state"/>
+    <tableColumn id="6" xr3:uid="{C72C29CB-D420-7649-999C-B1EA1B70E0F7}" name="destination"/>
+    <tableColumn id="4" xr3:uid="{F2BEAA99-68A5-0A43-AAFE-628903802CE7}" name="formula" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A99E0259-71F7-5349-842A-81C2337E843A}" name="Table412" displayName="Table412" ref="A1:H21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H21" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
   <tableColumns count="8">
@@ -2751,121 +2365,6 @@
     <tableColumn id="2" xr3:uid="{14589F4D-18F4-2C4E-B1AD-831CF7E8134A}" name="node_description" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{992CDC3E-A44D-F547-BCB5-1048FCB8AE4E}" name="tags" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{27B03F7E-CB8D-FB48-B9A6-86975CD1194F}" name="formula" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A864B13E-9722-6C40-BC17-06B0EC44FC76}" name="Table1" displayName="Table1" ref="A1:H570" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72" tableBorderDxfId="71">
-  <autoFilter ref="A1:H570" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C5331D5E-A656-7D47-8018-7642F10E6CA8}" name="name" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{FEA74BC7-2D0A-FF42-8C35-D063305661C6}" name="display_name" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{63526D68-1716-6448-B99B-CEBB86C8242D}" name="description" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{AAB4E451-EEBB-A044-8AD0-9290DF1E2375}" name="strategy" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{3D31035A-B4B1-B64A-87FB-CCC8C775DF25}" name="group" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{427DFF91-8F93-0145-9131-C95DC4252B95}" name="formula" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{10971855-F585-B248-B675-EED7430FEFA2}" name="sampling" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{BFC96336-E3CF-2440-BE04-07C88F5381BB}" name="source" dataDxfId="63"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{848A7D5C-EB27-7A4F-89E3-BE69E0713E83}" name="Table4" displayName="Table4" ref="A1:E5" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
-  <autoFilter ref="A1:E5" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D45418EA-2F30-AD4B-9A80-81EA7CFFD3A6}" name="name" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{F15BE751-2E1F-6D45-B6CA-4B36A3DBAF1F}" name="display_name" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{2DE37434-05F3-2C49-8B39-6141D82E12D4}" name="description" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{921E3B01-3DE0-B949-9ECA-84145DD4961B}" name="weight" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{2C5B087B-AA5D-8044-9269-45693F645B8A}" name="enabled" dataDxfId="56"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A3735BD8-BE90-F145-B9D1-6F21AD4EC4DD}" name="Table48" displayName="Table48" ref="A1:D16" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
-  <autoFilter ref="A1:D16" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D2109DA5-F8C7-1B48-8FA8-9CE2A6E54806}" name="name" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{78BE1725-4B12-FA40-9F4C-A8B91618D230}" name="display_name" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{EB0ED736-D7D3-6D4A-80D8-FFDFD7676DEB}" name="description" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{CE38F532-648B-8E47-9229-7AE2F2A5A3BF}" name="enabled" dataDxfId="50"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A04C3E6A-433E-0545-80A3-CBB5A6412F2F}" name="Table483" displayName="Table483" ref="A1:H59" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
-  <autoFilter ref="A1:H59" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{11FBCC06-DBFA-A941-9390-FDA6DFC2DF08}" name="name" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{F1165C82-7EB6-3C4E-A6D0-9C7580824800}" name="display_name" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{921BCE85-2052-2041-AA5B-3EF268AF0D24}" name="description" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{C80C7590-8767-2844-BE04-8DED1FE1D657}" name="initial_probability"/>
-    <tableColumn id="7" xr3:uid="{B9A684F9-BC62-284E-89EE-1142A552E18D}" name="state_group"/>
-    <tableColumn id="8" xr3:uid="{88DA97B5-C90D-B744-B0A5-283879E36586}" name="share_state_time"/>
-    <tableColumn id="6" xr3:uid="{A2855E5E-974C-BC49-8A0D-412678CF7025}" name="state_cycle_limit"/>
-    <tableColumn id="3" xr3:uid="{F3470966-7A21-5646-A493-EB3471A72394}" name="state_cycle_limit_unit" dataDxfId="44"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B6E7DE9-CD7F-6E42-B919-E2DF8C38677A}" name="Table46" displayName="Table46" ref="A1:C834" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:C834" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
-  <tableColumns count="3">
-    <tableColumn id="4" xr3:uid="{3643A0C0-1026-FE40-928C-1466B6129A34}" name="from" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{FCBCD6F9-C7A9-0541-A8CE-8C5A36C85513}" name="to" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{1DD2E99C-F1FD-2A44-BC9A-ED02B82B9DBB}" name="formula" dataDxfId="39"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECAEE805-6565-A54F-9DEE-3F776EC12FFC}" name="Table17" displayName="Table17" ref="A1:E305" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" tableBorderDxfId="36">
-  <autoFilter ref="A1:E305" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B672616B-5AD7-C04F-85D1-A80CD6C05684}" name="name" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{9359D359-E665-004E-AFAA-ED095E5901BE}" name="display_name" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{81785362-73A1-9448-94BF-3672160AD33A}" name="description" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{C60112EB-A39D-9044-AA87-C45800C17C3E}" name="state"/>
-    <tableColumn id="4" xr3:uid="{F2BEAA99-68A5-0A43-AAFE-628903802CE7}" name="formula" dataDxfId="32"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{807070A7-0DF7-3245-96CA-69CBEFA46270}" name="Table179" displayName="Table179" ref="A1:D461" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" tableBorderDxfId="29">
-  <autoFilter ref="A1:D461" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3E32531B-2D5B-7D4D-9F72-95B0E97D477D}" name="name" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{9D24E0CA-6DAC-424A-8CC0-9327FF2DCD91}" name="display_name" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{91A77587-3489-744E-9AEE-B4C6FFDBD485}" name="description" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{D3852737-9948-CF49-A5C5-D065D2498A68}" name="formula" dataDxfId="25"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{248B41EF-23C0-8747-AB08-5F4A2A55FCAB}" name="Table1710" displayName="Table1710" ref="A1:F300" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
-  <autoFilter ref="A1:F300" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{07D27132-D69E-1641-AA06-D260A96104E7}" name="name" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{64B1BCE1-6EE5-6649-A2A5-29B0F19C1A50}" name="display_name" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{67FFE58D-F8B6-4048-878C-3C4AABE7FDCF}" name="description" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{1F2C245A-7DCC-4A44-A399-75A8A293BAE4}" name="wtp" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{F3B7D886-2E2D-414C-81EB-1DC1B2B0C574}" name="type"/>
-    <tableColumn id="4" xr3:uid="{531AB629-5A53-2847-91C9-95DFAFBA1F68}" name="formula" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3168,10 +2667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789EB1D1-FEF7-C74F-B89A-A764B5DCEB42}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3187,18 +2686,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3230,7 +2729,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3251,319 +2750,26 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B10" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67528ABD-FFE9-6949-935C-CE57E01FFE03}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="55.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA7FBD6-A0DC-8E4C-95D4-7A1E357C0E0B}">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.83203125" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" customWidth="1"/>
-    <col min="9" max="9" width="25.5" customWidth="1"/>
-    <col min="10" max="10" width="36.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="3">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -3605,16 +2811,16 @@
         <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>11</v>
@@ -3622,283 +2828,283 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" s="12">
         <v>26</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="12">
         <v>45</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="12">
         <v>27</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="12">
         <v>48</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12">
         <v>1E-3</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -3906,236 +3112,236 @@
         <v>1000</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -9612,13 +8818,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1">
         <v>0.24</v>
@@ -9629,13 +8835,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1">
         <v>0.23</v>
@@ -9646,13 +8852,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1">
         <v>0.26</v>
@@ -9663,13 +8869,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1">
         <v>0.27</v>
@@ -9719,13 +8925,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="b">
         <v>1</v>
@@ -9733,13 +8939,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>1</v>
@@ -9747,13 +8953,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>1</v>
@@ -9831,32 +9037,32 @@
         <v>8</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -9868,18 +9074,18 @@
         <v>101</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -9891,18 +9097,18 @@
         <v>101</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -9911,18 +9117,18 @@
         <v>101</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -9931,7 +9137,7 @@
         <v>101</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -10133,10 +9339,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>10</v>
@@ -10146,65 +9352,65 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
       <c r="C5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="12">
         <v>0.03</v>
@@ -10212,10 +9418,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="12">
         <v>0.01</v>
@@ -10223,21 +9429,21 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="12">
         <v>0.04</v>
@@ -10245,10 +9451,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
@@ -10264,10 +9470,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0D78FB-8401-9E4C-9EB5-A7C336F3C948}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10275,11 +9481,11 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="89" customWidth="1"/>
+    <col min="4" max="5" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -10290,1931 +9496,1934 @@
         <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>132</v>
       </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
         <v>130</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
         <v>130</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>155</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>170</v>
-      </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>171</v>
-      </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>175</v>
-      </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>177</v>
-      </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C32" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>178</v>
-      </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>179</v>
-      </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>180</v>
-      </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C35" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>181</v>
-      </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C36" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>182</v>
-      </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C37" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>183</v>
-      </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>184</v>
-      </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>185</v>
-      </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C40" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>186</v>
-      </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C41" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C42" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>188</v>
-      </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C43" t="s">
-        <v>132</v>
-      </c>
-      <c r="D43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>189</v>
-      </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C44" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>190</v>
-      </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C46" t="s">
-        <v>132</v>
-      </c>
-      <c r="D46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>192</v>
-      </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C47" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>193</v>
-      </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C48" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>194</v>
-      </c>
-      <c r="B49" t="s">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C49" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>195</v>
-      </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>203</v>
+      </c>
+      <c r="B60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C50" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>196</v>
-      </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C51" t="s">
-        <v>132</v>
-      </c>
-      <c r="D51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>197</v>
-      </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C52" t="s">
-        <v>132</v>
-      </c>
-      <c r="D52" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>198</v>
-      </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C53" t="s">
-        <v>132</v>
-      </c>
-      <c r="D53" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>199</v>
-      </c>
-      <c r="B54" t="s">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C54" t="s">
-        <v>132</v>
-      </c>
-      <c r="D54" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>200</v>
-      </c>
-      <c r="B55" t="s">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C55" t="s">
-        <v>132</v>
-      </c>
-      <c r="D55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>201</v>
-      </c>
-      <c r="B56" t="s">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C56" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>202</v>
-      </c>
-      <c r="B57" t="s">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>210</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C57" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>203</v>
-      </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C58" t="s">
-        <v>132</v>
-      </c>
-      <c r="D58" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>204</v>
-      </c>
-      <c r="B59" t="s">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>205</v>
-      </c>
-      <c r="B60" t="s">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>213</v>
+      </c>
+      <c r="B70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C60" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>206</v>
-      </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C61" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>207</v>
-      </c>
-      <c r="B62" t="s">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C62" t="s">
-        <v>132</v>
-      </c>
-      <c r="D62" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>208</v>
-      </c>
-      <c r="B63" t="s">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C63" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>209</v>
-      </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C64" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>210</v>
-      </c>
-      <c r="B65" t="s">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C65" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" t="s">
-        <v>32</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>211</v>
-      </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>219</v>
+      </c>
+      <c r="B76" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C66" t="s">
-        <v>132</v>
-      </c>
-      <c r="D66" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>212</v>
-      </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C67" t="s">
-        <v>132</v>
-      </c>
-      <c r="D67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>213</v>
-      </c>
-      <c r="B68" t="s">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>221</v>
+      </c>
+      <c r="B78" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C68" t="s">
-        <v>132</v>
-      </c>
-      <c r="D68" t="s">
-        <v>32</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>214</v>
-      </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>222</v>
+      </c>
+      <c r="B79" t="s">
+        <v>129</v>
+      </c>
+      <c r="C79" t="s">
+        <v>130</v>
+      </c>
+      <c r="D79" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C69" t="s">
-        <v>132</v>
-      </c>
-      <c r="D69" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>215</v>
-      </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>223</v>
+      </c>
+      <c r="B80" t="s">
+        <v>129</v>
+      </c>
+      <c r="C80" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C70" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" t="s">
-        <v>32</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>216</v>
-      </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" t="s">
+        <v>130</v>
+      </c>
+      <c r="D81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C71" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>217</v>
-      </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>225</v>
+      </c>
+      <c r="B82" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C72" t="s">
-        <v>132</v>
-      </c>
-      <c r="D72" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>218</v>
-      </c>
-      <c r="B73" t="s">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" t="s">
+        <v>130</v>
+      </c>
+      <c r="D83" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C73" t="s">
-        <v>132</v>
-      </c>
-      <c r="D73" t="s">
-        <v>32</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>219</v>
-      </c>
-      <c r="B74" t="s">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C74" t="s">
-        <v>132</v>
-      </c>
-      <c r="D74" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>220</v>
-      </c>
-      <c r="B75" t="s">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>228</v>
+      </c>
+      <c r="B85" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" t="s">
+        <v>30</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C75" t="s">
-        <v>132</v>
-      </c>
-      <c r="D75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>221</v>
-      </c>
-      <c r="B76" t="s">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>229</v>
+      </c>
+      <c r="B86" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C76" t="s">
-        <v>132</v>
-      </c>
-      <c r="D76" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>222</v>
-      </c>
-      <c r="B77" t="s">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>230</v>
+      </c>
+      <c r="B87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" t="s">
+        <v>130</v>
+      </c>
+      <c r="D87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C77" t="s">
-        <v>132</v>
-      </c>
-      <c r="D77" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>223</v>
-      </c>
-      <c r="B78" t="s">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>231</v>
+      </c>
+      <c r="B88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C88" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C78" t="s">
-        <v>132</v>
-      </c>
-      <c r="D78" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>224</v>
-      </c>
-      <c r="B79" t="s">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>232</v>
+      </c>
+      <c r="B89" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" t="s">
+        <v>130</v>
+      </c>
+      <c r="D89" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C79" t="s">
-        <v>132</v>
-      </c>
-      <c r="D79" t="s">
-        <v>32</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>225</v>
-      </c>
-      <c r="B80" t="s">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>233</v>
+      </c>
+      <c r="B90" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" t="s">
+        <v>130</v>
+      </c>
+      <c r="D90" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C80" t="s">
-        <v>132</v>
-      </c>
-      <c r="D80" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>226</v>
-      </c>
-      <c r="B81" t="s">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>234</v>
+      </c>
+      <c r="B91" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C81" t="s">
-        <v>132</v>
-      </c>
-      <c r="D81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>227</v>
-      </c>
-      <c r="B82" t="s">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>235</v>
+      </c>
+      <c r="B92" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" t="s">
+        <v>130</v>
+      </c>
+      <c r="D92" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C82" t="s">
-        <v>132</v>
-      </c>
-      <c r="D82" t="s">
-        <v>32</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>228</v>
-      </c>
-      <c r="B83" t="s">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>236</v>
+      </c>
+      <c r="B93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C83" t="s">
-        <v>132</v>
-      </c>
-      <c r="D83" t="s">
-        <v>32</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>229</v>
-      </c>
-      <c r="B84" t="s">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>237</v>
+      </c>
+      <c r="B94" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" t="s">
+        <v>130</v>
+      </c>
+      <c r="D94" t="s">
+        <v>30</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C84" t="s">
-        <v>132</v>
-      </c>
-      <c r="D84" t="s">
-        <v>32</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>230</v>
-      </c>
-      <c r="B85" t="s">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>238</v>
+      </c>
+      <c r="B95" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C85" t="s">
-        <v>132</v>
-      </c>
-      <c r="D85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>231</v>
-      </c>
-      <c r="B86" t="s">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>239</v>
+      </c>
+      <c r="B96" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" t="s">
+        <v>130</v>
+      </c>
+      <c r="D96" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C86" t="s">
-        <v>132</v>
-      </c>
-      <c r="D86" t="s">
-        <v>32</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>232</v>
-      </c>
-      <c r="B87" t="s">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>240</v>
+      </c>
+      <c r="B97" t="s">
+        <v>129</v>
+      </c>
+      <c r="C97" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C87" t="s">
-        <v>132</v>
-      </c>
-      <c r="D87" t="s">
-        <v>32</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>233</v>
-      </c>
-      <c r="B88" t="s">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>241</v>
+      </c>
+      <c r="B98" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98" t="s">
+        <v>130</v>
+      </c>
+      <c r="D98" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C88" t="s">
-        <v>132</v>
-      </c>
-      <c r="D88" t="s">
-        <v>32</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>234</v>
-      </c>
-      <c r="B89" t="s">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>242</v>
+      </c>
+      <c r="B99" t="s">
+        <v>129</v>
+      </c>
+      <c r="C99" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C89" t="s">
-        <v>132</v>
-      </c>
-      <c r="D89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>235</v>
-      </c>
-      <c r="B90" t="s">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>243</v>
+      </c>
+      <c r="B100" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" t="s">
+        <v>130</v>
+      </c>
+      <c r="D100" t="s">
+        <v>30</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C90" t="s">
-        <v>132</v>
-      </c>
-      <c r="D90" t="s">
-        <v>32</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>236</v>
-      </c>
-      <c r="B91" t="s">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>244</v>
+      </c>
+      <c r="B101" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" t="s">
+        <v>130</v>
+      </c>
+      <c r="D101" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C91" t="s">
-        <v>132</v>
-      </c>
-      <c r="D91" t="s">
-        <v>32</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>237</v>
-      </c>
-      <c r="B92" t="s">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>245</v>
+      </c>
+      <c r="B102" t="s">
+        <v>129</v>
+      </c>
+      <c r="C102" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" t="s">
+        <v>30</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C92" t="s">
-        <v>132</v>
-      </c>
-      <c r="D92" t="s">
-        <v>32</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>238</v>
-      </c>
-      <c r="B93" t="s">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>246</v>
+      </c>
+      <c r="B103" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" t="s">
+        <v>130</v>
+      </c>
+      <c r="D103" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C93" t="s">
-        <v>132</v>
-      </c>
-      <c r="D93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>239</v>
-      </c>
-      <c r="B94" t="s">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>247</v>
+      </c>
+      <c r="B104" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" t="s">
+        <v>130</v>
+      </c>
+      <c r="D104" t="s">
+        <v>30</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C94" t="s">
-        <v>132</v>
-      </c>
-      <c r="D94" t="s">
-        <v>32</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>240</v>
-      </c>
-      <c r="B95" t="s">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>248</v>
+      </c>
+      <c r="B105" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" t="s">
+        <v>130</v>
+      </c>
+      <c r="D105" t="s">
+        <v>30</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C95" t="s">
-        <v>132</v>
-      </c>
-      <c r="D95" t="s">
-        <v>32</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>241</v>
-      </c>
-      <c r="B96" t="s">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>249</v>
+      </c>
+      <c r="B106" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" t="s">
+        <v>130</v>
+      </c>
+      <c r="D106" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C96" t="s">
-        <v>132</v>
-      </c>
-      <c r="D96" t="s">
-        <v>32</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>242</v>
-      </c>
-      <c r="B97" t="s">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>250</v>
+      </c>
+      <c r="B107" t="s">
+        <v>129</v>
+      </c>
+      <c r="C107" t="s">
+        <v>130</v>
+      </c>
+      <c r="D107" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C97" t="s">
-        <v>132</v>
-      </c>
-      <c r="D97" t="s">
-        <v>32</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>243</v>
-      </c>
-      <c r="B98" t="s">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>251</v>
+      </c>
+      <c r="B108" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108" t="s">
+        <v>130</v>
+      </c>
+      <c r="D108" t="s">
+        <v>30</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C98" t="s">
-        <v>132</v>
-      </c>
-      <c r="D98" t="s">
-        <v>32</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>244</v>
-      </c>
-      <c r="B99" t="s">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>252</v>
+      </c>
+      <c r="B109" t="s">
+        <v>129</v>
+      </c>
+      <c r="C109" t="s">
+        <v>130</v>
+      </c>
+      <c r="D109" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C99" t="s">
-        <v>132</v>
-      </c>
-      <c r="D99" t="s">
-        <v>32</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>245</v>
-      </c>
-      <c r="B100" t="s">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>253</v>
+      </c>
+      <c r="B110" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" t="s">
+        <v>130</v>
+      </c>
+      <c r="D110" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C100" t="s">
-        <v>132</v>
-      </c>
-      <c r="D100" t="s">
-        <v>32</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>246</v>
-      </c>
-      <c r="B101" t="s">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>254</v>
+      </c>
+      <c r="B111" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111" t="s">
+        <v>130</v>
+      </c>
+      <c r="D111" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C101" t="s">
-        <v>132</v>
-      </c>
-      <c r="D101" t="s">
-        <v>32</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>247</v>
-      </c>
-      <c r="B102" t="s">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>255</v>
+      </c>
+      <c r="B112" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" t="s">
+        <v>130</v>
+      </c>
+      <c r="D112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C102" t="s">
-        <v>132</v>
-      </c>
-      <c r="D102" t="s">
-        <v>32</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>248</v>
-      </c>
-      <c r="B103" t="s">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>256</v>
+      </c>
+      <c r="B113" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" t="s">
+        <v>130</v>
+      </c>
+      <c r="D113" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C103" t="s">
-        <v>132</v>
-      </c>
-      <c r="D103" t="s">
-        <v>32</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>249</v>
-      </c>
-      <c r="B104" t="s">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>257</v>
+      </c>
+      <c r="B114" t="s">
+        <v>129</v>
+      </c>
+      <c r="C114" t="s">
+        <v>130</v>
+      </c>
+      <c r="D114" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C104" t="s">
-        <v>132</v>
-      </c>
-      <c r="D104" t="s">
-        <v>32</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>250</v>
-      </c>
-      <c r="B105" t="s">
-        <v>131</v>
-      </c>
-      <c r="C105" t="s">
-        <v>132</v>
-      </c>
-      <c r="D105" t="s">
-        <v>32</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>251</v>
-      </c>
-      <c r="B106" t="s">
-        <v>131</v>
-      </c>
-      <c r="C106" t="s">
-        <v>132</v>
-      </c>
-      <c r="D106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>252</v>
-      </c>
-      <c r="B107" t="s">
-        <v>131</v>
-      </c>
-      <c r="C107" t="s">
-        <v>132</v>
-      </c>
-      <c r="D107" t="s">
-        <v>32</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>253</v>
-      </c>
-      <c r="B108" t="s">
-        <v>131</v>
-      </c>
-      <c r="C108" t="s">
-        <v>132</v>
-      </c>
-      <c r="D108" t="s">
-        <v>32</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>254</v>
-      </c>
-      <c r="B109" t="s">
-        <v>131</v>
-      </c>
-      <c r="C109" t="s">
-        <v>132</v>
-      </c>
-      <c r="D109" t="s">
-        <v>32</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>255</v>
-      </c>
-      <c r="B110" t="s">
-        <v>131</v>
-      </c>
-      <c r="C110" t="s">
-        <v>132</v>
-      </c>
-      <c r="D110" t="s">
-        <v>32</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>256</v>
-      </c>
-      <c r="B111" t="s">
-        <v>131</v>
-      </c>
-      <c r="C111" t="s">
-        <v>132</v>
-      </c>
-      <c r="D111" t="s">
-        <v>32</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>257</v>
-      </c>
-      <c r="B112" t="s">
-        <v>131</v>
-      </c>
-      <c r="C112" t="s">
-        <v>132</v>
-      </c>
-      <c r="D112" t="s">
-        <v>32</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>258</v>
-      </c>
-      <c r="B113" t="s">
-        <v>131</v>
-      </c>
-      <c r="C113" t="s">
-        <v>132</v>
-      </c>
-      <c r="D113" t="s">
-        <v>32</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>259</v>
-      </c>
-      <c r="B114" t="s">
-        <v>131</v>
-      </c>
-      <c r="C114" t="s">
-        <v>132</v>
-      </c>
-      <c r="D114" t="s">
-        <v>32</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -12227,79 +11436,254 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC623ED-58CB-C345-830E-125C35882B36}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA7FBD6-A0DC-8E4C-95D4-7A1E357C0E0B}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.83203125" customWidth="1"/>
+    <col min="1" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027DF039-AA3B-D14D-995E-EC8A7C716730}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F300"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="43.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>10</v>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
